--- a/Alondra/Agendar cita/Citas.xlsx
+++ b/Alondra/Agendar cita/Citas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dani Pardo\Documents\UiPath\RoboticLand-RPA\Alondra\Agendar cita\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE699E94-843D-4A15-A1CA-330A94B7C2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940474AF-5A1E-4CB7-B02E-797C44E61F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D0A23F2D-94AF-413A-BF2A-997ED3C6AE3E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
   <si>
     <t>DNI PACIENTE</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>ESPECIALIADAD</t>
+  </si>
+  <si>
+    <t>48291357B</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1B5A0C-468D-4CAA-B7FA-B6E8F175343C}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -552,6 +555,19 @@
         <v>0.375</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Alondra/Agendar cita/Citas.xlsx
+++ b/Alondra/Agendar cita/Citas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dani Pardo\Documents\UiPath\RoboticLand-RPA\Alondra\Agendar cita\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940474AF-5A1E-4CB7-B02E-797C44E61F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD69B2A-CB0C-47B5-9B00-D5B3C3850369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D0A23F2D-94AF-413A-BF2A-997ED3C6AE3E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t>DNI PACIENTE</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>48291357B</t>
+  </si>
+  <si>
+    <t>59382147H</t>
+  </si>
+  <si>
+    <t>23456789Y</t>
+  </si>
+  <si>
+    <t>74569764V</t>
+  </si>
+  <si>
+    <t>34567896C</t>
   </si>
 </sst>
 </file>
@@ -403,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1B5A0C-468D-4CAA-B7FA-B6E8F175343C}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -568,6 +580,54 @@
         <v>0.375</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Alondra/Agendar cita/Citas.xlsx
+++ b/Alondra/Agendar cita/Citas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dani Pardo\Documents\UiPath\RoboticLand-RPA\Alondra\Agendar cita\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD69B2A-CB0C-47B5-9B00-D5B3C3850369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43248624-27B0-4C5F-A407-0F11E0BC419F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D0A23F2D-94AF-413A-BF2A-997ED3C6AE3E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>DNI PACIENTE</t>
   </si>
@@ -36,31 +36,13 @@
     <t>HORA CITA</t>
   </si>
   <si>
-    <t>45678912C</t>
-  </si>
-  <si>
-    <t>01/01/0001 00:00:00</t>
-  </si>
-  <si>
-    <t>98765432B</t>
-  </si>
-  <si>
     <t>ESPECIALIADAD</t>
   </si>
   <si>
-    <t>48291357B</t>
+    <t>23423212E</t>
   </si>
   <si>
-    <t>59382147H</t>
-  </si>
-  <si>
-    <t>23456789Y</t>
-  </si>
-  <si>
-    <t>74569764V</t>
-  </si>
-  <si>
-    <t>34567896C</t>
+    <t>323232323B</t>
   </si>
 </sst>
 </file>
@@ -415,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1B5A0C-468D-4CAA-B7FA-B6E8F175343C}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,192 +422,120 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1">
         <v>0.375</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.39583333333333331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2">
-        <v>45658</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3">
-        <v>46023</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3">
-        <v>46023</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="3">
-        <v>46023</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3">
-        <v>46023</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="3">
-        <v>46023</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="1">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.39583333333333331</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.375</v>
+      <c r="C30" s="1">
+        <v>0.41666666666666669</v>
       </c>
     </row>
   </sheetData>
